--- a/src/nqueen.xlsx
+++ b/src/nqueen.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosha\source\repos\rust\rust_lab\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47307976-6956-4CCF-8A77-AD7322A2E80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C65E2-5365-49DF-9FBF-D4AF861273DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{13BDD728-15F3-4F67-8B90-1AB4DF1BE7A3}"/>
+    <workbookView xWindow="0" yWindow="2610" windowWidth="36195" windowHeight="18270" xr2:uid="{13BDD728-15F3-4F67-8B90-1AB4DF1BE7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="4">
   <si>
     <t>Q</t>
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>0)</t>
   </si>
 </sst>
 </file>
@@ -476,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DA13F8-90E5-46B8-9B16-47DC9250FB3A}">
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="V7" workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +804,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="7"/>
@@ -1240,7 +1247,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="6" t="s">
+      <c r="AI10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AJ10" s="7"/>
@@ -1613,7 +1620,9 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
+      <c r="AQ15" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -2594,7 +2603,9 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
+      <c r="AD28" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="AE28" s="4">
         <v>12</v>
       </c>
